--- a/data/trans_dic/P22$mutuaSPriv-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,75</t>
+          <t>0,2; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,91</t>
+          <t>0,85; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,82</t>
+          <t>1,03; 3,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,99</t>
+          <t>0,84; 7,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,6</t>
+          <t>0,86; 3,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,3</t>
+          <t>0,24; 2,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,23</t>
+          <t>0,7; 6,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,07</t>
+          <t>0,68; 2,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,11</t>
+          <t>0,66; 2,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,65</t>
+          <t>0,77; 2,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,37</t>
+          <t>1,2; 5,45</t>
         </is>
       </c>
     </row>
@@ -864,42 +865,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,58</t>
+          <t>1,99; 4,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,96</t>
+          <t>1,49; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,0</t>
+          <t>0,83; 3,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,95</t>
+          <t>0,38; 3,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,65</t>
+          <t>1,25; 3,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,16</t>
+          <t>0,81; 3,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,29</t>
+          <t>0,88; 3,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,12</t>
+          <t>1,5; 5,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,02</t>
+          <t>1,44; 3,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,66</t>
+          <t>1,17; 2,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,8</t>
+          <t>1,36; 3,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,58</t>
+          <t>1,15; 3,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,71</t>
+          <t>1,86; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,65</t>
+          <t>1,16; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,68</t>
+          <t>0,98; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,22</t>
+          <t>0,55; 2,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,72</t>
+          <t>1,87; 4,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,61</t>
+          <t>1,3; 3,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,85</t>
+          <t>1,67; 3,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,46</t>
+          <t>1,06; 2,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,14</t>
+          <t>2,2; 4,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,22</t>
+          <t>1,46; 3,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,23</t>
+          <t>1,57; 3,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,81</t>
+          <t>1,28; 3,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,52</t>
+          <t>0,93; 3,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,75</t>
+          <t>1,71; 4,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,33</t>
+          <t>1,05; 4,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,77</t>
+          <t>1,78; 5,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,29</t>
+          <t>1,73; 5,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,14</t>
+          <t>1,0; 3,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,87</t>
+          <t>1,94; 3,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,79</t>
+          <t>1,75; 4,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,67</t>
+          <t>1,65; 3,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,57</t>
+          <t>1,55; 3,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,71</t>
+          <t>1,6; 3,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,49</t>
+          <t>1,19; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,05</t>
+          <t>0,73; 3,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,58</t>
+          <t>0,98; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,56</t>
+          <t>1,87; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,43</t>
+          <t>1,67; 5,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,45</t>
+          <t>0,45; 2,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,92</t>
+          <t>0,71; 3,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,03</t>
+          <t>1,8; 3,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,28</t>
+          <t>1,8; 4,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,58</t>
+          <t>0,75; 2,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,17</t>
+          <t>1,16; 3,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,89</t>
+          <t>2,09; 3,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,59</t>
+          <t>0,94; 4,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,93</t>
+          <t>0,72; 5,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,97</t>
+          <t>0,28; 3,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,26</t>
+          <t>2,68; 6,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,27</t>
+          <t>0,95; 4,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,74</t>
+          <t>0,3; 2,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,2</t>
+          <t>0,54; 3,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,23</t>
+          <t>0,6; 3,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,46</t>
+          <t>1,34; 3,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,42</t>
+          <t>0,78; 3,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,45</t>
+          <t>0,7; 2,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,87</t>
+          <t>1,28; 3,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,37</t>
+          <t>0,36; 3,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,72</t>
+          <t>0,61; 3,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,8</t>
+          <t>1,43; 4,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,46</t>
+          <t>0,28; 2,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,55</t>
+          <t>0,55; 4,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,26</t>
+          <t>0,55; 2,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,15</t>
+          <t>0,45; 2,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,83</t>
+          <t>0,48; 2,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,21</t>
+          <t>0,48; 2,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,81</t>
+          <t>1,16; 2,76</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1705,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,71</t>
+          <t>1,66; 2,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,83</t>
+          <t>1,7; 2,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,61</t>
+          <t>1,63; 2,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,42 +1725,42 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,67</t>
+          <t>1,63; 2,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,46</t>
+          <t>1,45; 2,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,16</t>
+          <t>1,3; 2,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,95</t>
+          <t>1,86; 2,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,5</t>
+          <t>1,77; 2,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,43</t>
+          <t>1,69; 2,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,22</t>
+          <t>1,54; 2,25</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,02</t>
+          <t>2,14; 2,98</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Privado)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3532</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8680</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8499</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12235</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8978</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8248</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12510</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10657</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12170</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20482</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>994; 8928</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3841; 16965</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4282; 16022</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3358; 29775</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4033; 16606</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7026</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>946; 8679</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2194; 20447</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6547; 19833</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5850; 20214</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6240; 20510</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8550; 38881</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22449</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17128</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9997</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6319</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13655</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9905</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10699</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15421</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36104</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27033</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20697</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21740</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14590; 35530</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10256; 28273</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4897; 17930</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1613; 15602</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7827; 24180</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4932; 19148</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4952; 18052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7649; 25876</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24404; 49704</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18640; 39289</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13431; 30319</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12715; 35001</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13798</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20488</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14405</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10650</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8564</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21242</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14630</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14054</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22362</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>41730</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29035</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24704</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7372; 22402</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12687; 32077</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7749; 25390</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5245; 19733</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3786; 15482</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13258; 33176</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8615; 24835</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9041; 21306</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14098; 33463</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30619; 58888</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19390; 42190</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16939; 35779</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11596</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11906</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18893</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23275</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15466</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18615</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12711</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19912</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27062</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>30521</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31604</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43186</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6623; 20323</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5713; 22999</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11057; 30103</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9295; 40538</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9169; 25712</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10647; 31754</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6513; 21290</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13859; 28074</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18086; 41502</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20355; 47081</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19998; 44916</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25557; 59558</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9964</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9541</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17474</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12720</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9525</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14538</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22684</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13045</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19066</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32012</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4618; 18813</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3131; 16592</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4665; 17799</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10506; 26110</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6727; 21074</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2023; 12476</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3528; 19039</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9807; 20959</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14229; 32706</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6556; 23649</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11247; 30388</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>23153; 43567</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6509</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8182</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>15110</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7455</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5798</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11270</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13964</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12041</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9936</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26380</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2761; 12986</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2242; 18025</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>933; 10775</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9869; 22739</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3255; 14245</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1047; 9755</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2038; 13446</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3640; 19897</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8512; 23007</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5180; 23209</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4973; 19179</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>12515; 36877</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4769</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7875</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6065</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2559</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4841</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5657</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8056</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>12716</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>747; 6918</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6087</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1557; 9721</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4055; 12938</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>920; 7646</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2138; 15718</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8790</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2361; 9475</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2437; 12573</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3044; 16778</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3142; 13908</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>8230; 19526</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>70385</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>76151</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>70242</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>92937</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>69958</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>66933</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>59593</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>88283</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>140343</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>143084</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>129835</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>181220</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>54170; 88277</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>58359; 95847</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>55232; 91957</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>71187; 117591</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>54954; 88275</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>51711; 87500</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>46180; 77953</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>68222; 108676</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>117526; 165710</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>117704; 172459</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>106568; 155579</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>152145; 211974</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>